--- a/graphs/sonar_pretensionata_statico.xlsx
+++ b/graphs/sonar_pretensionata_statico.xlsx
@@ -455,13 +455,13 @@
         <v>0.1928960155490768</v>
       </c>
       <c r="C2" t="n">
-        <v>112.16</v>
+        <v>1.1002896</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>-12.70568513119533</v>
       </c>
       <c r="C3" t="n">
-        <v>132.29</v>
+        <v>1.2977649</v>
       </c>
       <c r="D3" t="n">
         <v>0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>-25.71168124392614</v>
       </c>
       <c r="C4" t="n">
-        <v>152.28</v>
+        <v>1.4938668</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>-38.34184645286685</v>
       </c>
       <c r="C5" t="n">
-        <v>171.94</v>
+        <v>1.6867314</v>
       </c>
       <c r="D5" t="n">
         <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>-51.4526433430515</v>
       </c>
       <c r="C6" t="n">
-        <v>191.85</v>
+        <v>1.8820485</v>
       </c>
       <c r="D6" t="n">
         <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
     <row r="7">
@@ -540,13 +540,13 @@
         <v>-64.311768707483</v>
       </c>
       <c r="C7" t="n">
-        <v>211.84</v>
+        <v>2.0781504</v>
       </c>
       <c r="D7" t="n">
         <v>0.2</v>
       </c>
       <c r="E7" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
     <row r="8">
@@ -557,13 +557,13 @@
         <v>-77.19675413022352</v>
       </c>
       <c r="C8" t="n">
-        <v>231.85</v>
+        <v>2.2744485</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
       </c>
       <c r="E8" t="n">
-        <v>3.034424561371638</v>
+        <v>0.01045024556738527</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_statico.xlsx
+++ b/graphs/sonar_pretensionata_statico.xlsx
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1928960155490768</v>
+        <v>0.0001928960155490768</v>
       </c>
       <c r="C2" t="n">
         <v>1.1002896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
     <row r="3">
@@ -469,16 +469,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.70568513119533</v>
+        <v>-0.01270568513119533</v>
       </c>
       <c r="C3" t="n">
         <v>1.2977649</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
     <row r="4">
@@ -486,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-25.71168124392614</v>
+        <v>-0.02571168124392614</v>
       </c>
       <c r="C4" t="n">
         <v>1.4938668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +503,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-38.34184645286685</v>
+        <v>-0.03834184645286685</v>
       </c>
       <c r="C5" t="n">
         <v>1.6867314</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
     <row r="6">
@@ -520,16 +520,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-51.4526433430515</v>
+        <v>-0.0514526433430515</v>
       </c>
       <c r="C6" t="n">
         <v>1.8820485</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
     <row r="7">
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-64.311768707483</v>
+        <v>-0.06431176870748299</v>
       </c>
       <c r="C7" t="n">
         <v>2.0781504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
     <row r="8">
@@ -554,16 +554,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-77.19675413022352</v>
+        <v>-0.07719675413022352</v>
       </c>
       <c r="C8" t="n">
         <v>2.2744485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01045024556738527</v>
+        <v>0.003034424561371639</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_pretensionata_statico.xlsx
+++ b/graphs/sonar_pretensionata_statico.xlsx
@@ -461,7 +461,7 @@
         <v>0.0002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>0.0002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.0002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.0002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0.0002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
     <row r="7">
@@ -546,7 +546,7 @@
         <v>0.0002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
     <row r="8">
@@ -563,7 +563,7 @@
         <v>0.0002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003034424561371639</v>
+        <v>0.003035993417096859</v>
       </c>
     </row>
   </sheetData>
